--- a/Planilha investimento.xlsx
+++ b/Planilha investimento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador.DESKTOP-94MEND5\Onedrive - lademir\LTCATS\OneDrive - ArcelorMittal\FISPQ\Área de Trabalho\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166AF30D-E0AD-4BF6-9B9E-DE43B11D66E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1F27D3-CE20-47FD-B8D4-47B7662E19F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="451" xr2:uid="{D656FAAF-B848-48D2-A450-169D4375D7C6}"/>
   </bookViews>
@@ -16,13 +16,7 @@
     <sheet name="APP" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">APP!$B$36:$B$41</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">APP!$C$35</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">APP!$C$36:$C$41</definedName>
     <definedName name="aporte">APP!$D$18</definedName>
     <definedName name="patrimonio">APP!$D$21</definedName>
     <definedName name="qtd_anos">APP!$D$19</definedName>
@@ -484,36 +478,6 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color theme="0" tint="-0.14996795556505021"/>
       </left>
       <right style="medium">
@@ -638,6 +602,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -654,23 +644,15 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -690,7 +672,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="2" applyFont="1"/>
@@ -728,7 +710,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -758,10 +740,16 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -777,10 +765,28 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -922,6 +928,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-87B6-4E27-AC3B-424DF1DEED12}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -964,6 +975,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-87B6-4E27-AC3B-424DF1DEED12}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1006,6 +1022,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-87B6-4E27-AC3B-424DF1DEED12}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1048,6 +1069,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-87B6-4E27-AC3B-424DF1DEED12}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1090,6 +1116,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-87B6-4E27-AC3B-424DF1DEED12}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -1223,22 +1254,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.32</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.08</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.05</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1940,78 +1971,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="APP"/>
-      <sheetName val="Planilha2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="35">
-          <cell r="C35" t="str">
-            <v>Percentual Sugerido</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36" t="str">
-            <v>PAPEL</v>
-          </cell>
-          <cell r="C36">
-            <v>0.32</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37" t="str">
-            <v>TIJOLO</v>
-          </cell>
-          <cell r="C37">
-            <v>0.35</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38" t="str">
-            <v>HÍBRIDOS</v>
-          </cell>
-          <cell r="C38">
-            <v>0.08</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39" t="str">
-            <v>FOFs</v>
-          </cell>
-          <cell r="C39">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40" t="str">
-            <v>DESENVOLVIMENTO</v>
-          </cell>
-          <cell r="C40">
-            <v>0.1</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41" t="str">
-            <v>HOTELARIAS</v>
-          </cell>
-          <cell r="C41">
-            <v>0.1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -2368,8 +2327,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F28A7A-6D6F-41BF-A8B1-908D213225A6}">
   <dimension ref="A1:XFB1048576"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A1048571" sqref="A1048571:XFD1048576"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+      <extLst>
+        <ext xmlns:xlsdti="http://schemas.microsoft.com/office/spreadsheetml/2023/showDataTypeIcons" uri="{77bfe23e-c014-4d31-8a63-9c772dbf06b6}">
+          <xlsdti:showDataTypeIcons visible="0"/>
+        </ext>
+      </extLst>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2419,191 +2383,191 @@
       <c r="C11"/>
     </row>
     <row r="12" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
     </row>
     <row r="13" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="23">
-        <v>3500</v>
+      <c r="C13" s="44"/>
+      <c r="D13" s="15">
+        <v>4500</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="54"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="42">
+      <c r="C15" s="48"/>
+      <c r="D15" s="34">
         <f>salario*30%</f>
-        <v>1050</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
     </row>
     <row r="18" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="39">
+      <c r="C18" s="50"/>
+      <c r="D18" s="31">
         <f>sugestao_investimento</f>
-        <v>1050</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="40">
+      <c r="C19" s="52"/>
+      <c r="D19" s="32">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="41">
+      <c r="C20" s="52"/>
+      <c r="D20" s="33">
         <v>1.0789999999999999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="20">
+      <c r="C21" s="54"/>
+      <c r="D21" s="12">
         <f>FV(taxa_mensal,qtd_anos*12,aporte*-1)</f>
-        <v>255448.4231566808</v>
+        <v>328433.68691573245</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="21">
+      <c r="C22" s="56"/>
+      <c r="D22" s="13">
         <f>patrimonio*Rendimento_carteira</f>
-        <v>1532.6905389400849</v>
+        <v>1970.6021214943949</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23"/>
     </row>
     <row r="24" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="42"/>
+      <c r="D24" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="8">
         <f>FV($D$20,$A30*12,$D$18*-1)</f>
-        <v>28589.008662527478</v>
-      </c>
-      <c r="D25" s="17">
+        <v>36757.29685182104</v>
+      </c>
+      <c r="D25" s="9">
         <f t="shared" ref="D25:D30" si="0">C25*Rendimento_carteira</f>
-        <v>171.53405197516489</v>
+        <v>220.54378111092623</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="8">
         <f>FV($D$20,$A31*12,$D$18*-1)</f>
-        <v>87965.759698412032</v>
-      </c>
-      <c r="D26" s="17">
+        <v>113098.83389795832</v>
+      </c>
+      <c r="D26" s="9">
         <f t="shared" si="0"/>
-        <v>527.79455819047223</v>
+        <v>678.59300338774995</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="8">
         <f>FV($D$20,$A42*12,$D$18*-1)</f>
-        <v>255448.4231566808</v>
-      </c>
-      <c r="D27" s="17">
+        <v>328433.68691573245</v>
+      </c>
+      <c r="D27" s="9">
         <f t="shared" si="0"/>
-        <v>1532.6905389400849</v>
+        <v>1970.6021214943949</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="8">
         <f>FV($D$20,$A43*12,$D$18*-1)</f>
-        <v>574327.52629005688</v>
-      </c>
-      <c r="D28" s="17">
+        <v>738421.10523007321</v>
+      </c>
+      <c r="D28" s="9">
         <f t="shared" si="0"/>
-        <v>3445.9651577403415</v>
+        <v>4430.5266313804395</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="8">
         <f>FV($D$20,$A44*12,$D$18*-1)</f>
-        <v>1181458.3201019347</v>
-      </c>
-      <c r="D29" s="17">
+        <v>1519017.8401310588</v>
+      </c>
+      <c r="D29" s="9">
         <f t="shared" si="0"/>
-        <v>7088.7499206116081</v>
+        <v>9114.1070407863535</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="10">
         <f>FV($D$20,$A45*12,$D$18*-1)</f>
-        <v>4538278.1377549507</v>
-      </c>
-      <c r="D30" s="19">
+        <v>5834929.0342563642</v>
+      </c>
+      <c r="D30" s="11">
         <f t="shared" si="0"/>
-        <v>27229.668826529705</v>
+        <v>35009.574205538185</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2614,37 +2578,37 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="24"/>
+      <c r="C32" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="16"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="24">
         <f>aporte</f>
-        <v>1050</v>
-      </c>
-      <c r="D33" s="26"/>
+        <v>1350</v>
+      </c>
+      <c r="D33" s="18"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="22" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2653,13 +2617,13 @@
       <c r="B36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="27">
+      <c r="C36" s="19">
         <f>VLOOKUP($C$32&amp;"-"&amp;B36,Planilha2!$A:$D,4,FALSE)</f>
-        <v>0.32</v>
-      </c>
-      <c r="D36" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="D36" s="25">
         <f>C36*$C$33</f>
-        <v>336</v>
+        <v>405</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2667,13 +2631,13 @@
       <c r="B37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="27">
+      <c r="C37" s="19">
         <f>VLOOKUP($C$32&amp;"-"&amp;B37,Planilha2!$A:$D,4,FALSE)</f>
-        <v>0.35</v>
-      </c>
-      <c r="D37" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="D37" s="25">
         <f t="shared" ref="D37:D41" si="1">C37*$C$33</f>
-        <v>367.5</v>
+        <v>675</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2681,13 +2645,13 @@
       <c r="B38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C38" s="19">
         <f>VLOOKUP($C$32&amp;"-"&amp;B38,Planilha2!$A:$D,4,FALSE)</f>
-        <v>0.08</v>
-      </c>
-      <c r="D38" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="D38" s="25">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2695,13 +2659,13 @@
       <c r="B39" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="27">
+      <c r="C39" s="19">
         <f>VLOOKUP($C$32&amp;"-"&amp;B39,Planilha2!$A:$D,4,FALSE)</f>
-        <v>0.05</v>
-      </c>
-      <c r="D39" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="D39" s="25">
         <f t="shared" si="1"/>
-        <v>52.5</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2709,13 +2673,13 @@
       <c r="B40" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="27">
+      <c r="C40" s="19">
         <f>VLOOKUP($C$32&amp;"-"&amp;B40,Planilha2!$A:$D,4,FALSE)</f>
-        <v>0.1</v>
-      </c>
-      <c r="D40" s="33">
+        <v>0</v>
+      </c>
+      <c r="D40" s="25">
         <f t="shared" si="1"/>
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2723,24 +2687,24 @@
       <c r="B41" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="27">
+      <c r="C41" s="19">
         <f>VLOOKUP($C$32&amp;"-"&amp;B41,Planilha2!$A:$D,4,FALSE)</f>
-        <v>0.1</v>
-      </c>
-      <c r="D41" s="33">
+        <v>0</v>
+      </c>
+      <c r="D41" s="25">
         <f t="shared" si="1"/>
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>10</v>
       </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="29">
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="21">
         <f>SUM(D36:D41)</f>
-        <v>1050</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -2770,13 +2734,18 @@
     <row r="1048575" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1048576" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32" xr:uid="{BB151C13-DCD1-4D9E-A5E1-BF91915479E6}">
@@ -2804,16 +2773,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="27" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2828,7 +2797,7 @@
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="19">
         <v>0.3</v>
       </c>
     </row>
@@ -2843,7 +2812,7 @@
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="19">
         <v>0.5</v>
       </c>
     </row>
@@ -2858,7 +2827,7 @@
       <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="19">
         <v>0.1</v>
       </c>
     </row>
@@ -2873,7 +2842,7 @@
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="19">
         <v>0.1</v>
       </c>
     </row>
@@ -2888,27 +2857,27 @@
       <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="str">
+      <c r="A8" s="14" t="str">
         <f t="shared" si="0"/>
         <v>CONSEVARDOR-HOTELARIAS</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="str">
+      <c r="A9" s="30" t="str">
         <f t="shared" si="0"/>
         <v>MODERADO-PAPEL</v>
       </c>
@@ -2918,7 +2887,7 @@
       <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="19">
         <v>0.32</v>
       </c>
     </row>
@@ -2933,7 +2902,7 @@
       <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="19">
         <v>0.35</v>
       </c>
     </row>
@@ -2948,7 +2917,7 @@
       <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="19">
         <v>0.08</v>
       </c>
     </row>
@@ -2963,7 +2932,7 @@
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="19">
         <v>0.05</v>
       </c>
     </row>
@@ -2978,27 +2947,27 @@
       <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="19">
         <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="str">
+      <c r="A14" s="14" t="str">
         <f t="shared" si="0"/>
         <v>MODERADO-HOTELARIAS</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="29">
         <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="str">
+      <c r="A15" s="30" t="str">
         <f t="shared" si="0"/>
         <v>AGRESSIVO-PAPEL</v>
       </c>
@@ -3008,7 +2977,7 @@
       <c r="C15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="19">
         <v>0.5</v>
       </c>
     </row>
@@ -3023,7 +2992,7 @@
       <c r="C16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="19">
         <v>0.1</v>
       </c>
     </row>
@@ -3038,7 +3007,7 @@
       <c r="C17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="19">
         <v>0.05</v>
       </c>
     </row>
@@ -3053,7 +3022,7 @@
       <c r="C18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="19">
         <v>0.05</v>
       </c>
     </row>
@@ -3068,22 +3037,22 @@
       <c r="C19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="19">
         <v>0.2</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="str">
+      <c r="A20" s="14" t="str">
         <f t="shared" si="0"/>
         <v>AGRESSIVO-HOTELARIAS</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="29">
         <v>0.1</v>
       </c>
     </row>
